--- a/medicine/Enfance/Christian_Merveille/Christian_Merveille.xlsx
+++ b/medicine/Enfance/Christian_Merveille/Christian_Merveille.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Christian Merveille est un chanteur, auteur-compositeur-interprète et écrivain belge pour enfants né le 7 décembre 1949 à Ixelles. Il a obtenu le prix SABAM pour l’ensemble de son œuvre.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les événements de mai 1968 le bouleversent durablement : « Je suis né à cette date-là. C’est comme si on était soudain passé du noir et blanc à la couleur... et je vis toujours dans cet éclat-là! »
 En 1972, il est instituteur, à Saint-Gilles puis rapidement à Waterloo où il enseignera plusieurs années. Sa pédagogie passe beaucoup par la chanson pour enfants. Et pour répondre à l’imaginaire débordant de ses élèves, il se met aussi à inventer des chansons. Il collabore peu à peu à la radio scolaire et à Radio Pirate RTBF.
@@ -550,7 +564,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>L’œuf de crocodile, texte de Christian Merveille, ill. de  Marie-José Sacré, Casterman, 1991
 Virginie Vertonghen a illustré cinq livres pour enfants avec des textes de Christian Merveille :
@@ -589,6 +605,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
